--- a/biology/Zoologie/Blaesodactylus_sakalava/Blaesodactylus_sakalava.xlsx
+++ b/biology/Zoologie/Blaesodactylus_sakalava/Blaesodactylus_sakalava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blaesodactylus sakalava est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaesodactylus sakalava est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko est assez massif, avec un corps et une tête larges. La queue est longue et fine (près de la moitié de la longueur totale). La couleur de base est le blanc-beige, avec de nombreuses petites taches variants du brun ou marron-orangé, plus présentes sur le dos et le dessus de la tête.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grandidier, 1867 : Liste des reptiles nouveaux découverts, en 1866, sur la côte sud-ouest de Madagascar. Revue et Magazine de Zoologie (Paris), ser. 2, vol. 19, p. 232-234 (texte intégral).</t>
         </is>
